--- a/Lista de Revisión de un SRS - Inspeccionar Luis.xlsx
+++ b/Lista de Revisión de un SRS - Inspeccionar Luis.xlsx
@@ -32,9 +32,6 @@
     <t>Nombre:</t>
   </si>
   <si>
-    <t>René Hagi Botello Casas</t>
-  </si>
-  <si>
     <t>Fecha:</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>Pendiente</t>
-  </si>
-  <si>
     <t>¿Se encuentra la última versión del documento en el repositorio y todos tiene acceso al él?</t>
   </si>
   <si>
@@ -129,6 +123,12 @@
   </si>
   <si>
     <t>Falta la referencia hacia el Game Design</t>
+  </si>
+  <si>
+    <t>Luis Alberto pérez Contreras</t>
+  </si>
+  <si>
+    <t>Terminado</t>
   </si>
 </sst>
 </file>
@@ -390,13 +390,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,14 +420,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1270,14 +1270,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="238125" cy="266700"/>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>409575</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>314325</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
@@ -1323,7 +1328,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -1595,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="A20:H24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1607,16 +1612,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1633,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1644,10 +1649,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>41932</v>
+        <v>41936</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1658,10 +1663,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1682,31 +1687,31 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -1730,28 +1735,28 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23" t="s">
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
@@ -1761,9 +1766,9 @@
       <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
@@ -1773,11 +1778,11 @@
       <c r="H13" s="19"/>
     </row>
     <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>17</v>
+      <c r="A14" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
@@ -1787,9 +1792,9 @@
       <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
@@ -1800,10 +1805,10 @@
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
@@ -1815,7 +1820,7 @@
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -1826,10 +1831,10 @@
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -1840,10 +1845,10 @@
     </row>
     <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
@@ -1854,69 +1859,69 @@
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+        <v>31</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
+        <v>30</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1960,18 +1965,17 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
@@ -2006,6 +2010,7 @@
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
